--- a/Tools/bin/GeneratorCSV/xls_config/#_ConditionConfig.xlsx
+++ b/Tools/bin/GeneratorCSV/xls_config/#_ConditionConfig.xlsx
@@ -121,6 +121,53 @@
   </si>
   <si>
     <t>strClientActionComment</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Player.LEAGUE_LEVEL</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Player.Say</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Player.PLAYER_LEVEL</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Player.VIP_LEVEL</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Player.LEAGUE_LEVEL</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Global</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Say</t>
+    </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -155,58 +202,11 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Player.LEAGUE_LEVEL</t>
+    <t>Player.Mail</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Player.TrigerTask</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Player.Mail</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Player.Say</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Player.PLAYER_LEVEL</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Player.VIP_LEVEL</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Player.LEAGUE_LEVEL</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>Global</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Say</t>
-    </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -604,7 +604,7 @@
   <dimension ref="A1:G155"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -703,19 +703,19 @@
         <v>5</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>16</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G5" t="s">
         <v>19</v>
@@ -726,16 +726,16 @@
         <v>3</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G6" s="1"/>
     </row>
@@ -744,16 +744,16 @@
         <v>4</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D7" t="s">
         <v>19</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.15">

--- a/Tools/bin/GeneratorCSV/xls_config/#_ConditionConfig.xlsx
+++ b/Tools/bin/GeneratorCSV/xls_config/#_ConditionConfig.xlsx
@@ -16,10 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="36">
-  <si>
-    <t>c</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="40">
   <si>
     <t>int</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -207,6 +204,26 @@
   </si>
   <si>
     <t>Player.TrigerTask</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>s</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>s</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>c</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>c</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cs</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -603,8 +620,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G155"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -620,285 +637,297 @@
   <sheetData>
     <row r="1" spans="1:7" s="4" customFormat="1" ht="68.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F1" s="4" t="s">
-        <v>22</v>
-      </c>
       <c r="G1" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>2</v>
-      </c>
       <c r="C2" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>9</v>
-      </c>
       <c r="C3" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E3" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="G3" s="5" t="s">
         <v>24</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="5" t="s">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>36</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>6</v>
+        <v>37</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B6" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="6" t="s">
-        <v>34</v>
-      </c>
       <c r="D6" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G6" s="1"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B7" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="6" t="s">
-        <v>27</v>
-      </c>
       <c r="D7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B14" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B16" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B19" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B20" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B21" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="22" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B22" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B23" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="24" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B24" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="25" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B25" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="26" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B26" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="27" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B27" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="28" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B28" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="29" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B29" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="45" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B45" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="46" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B46" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="52" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B52" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="55" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B55" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="60" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B60" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="64" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B64" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="65" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B65" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="122" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B122" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="125" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B125" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="146" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B146" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="151" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B151" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="152" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B152" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="153" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B153" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="154" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B154" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="155" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B155" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Tools/bin/GeneratorCSV/xls_config/#_ConditionConfig.xlsx
+++ b/Tools/bin/GeneratorCSV/xls_config/#_ConditionConfig.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="41">
   <si>
     <t>int</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -118,14 +118,6 @@
   </si>
   <si>
     <t>strClientActionComment</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Player.LEAGUE_LEVEL</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Player.Say</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -168,19 +160,44 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>s</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>s</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>c</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>c</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cs</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <r>
-      <t>Player</t>
+      <t>Global.</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>.</t>
+      <t>Mail</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>CUtil.</t>
     </r>
     <r>
       <rPr>
@@ -195,7 +212,15 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Player.VIP_LEVEL</t>
+    <t>CUtil.VIP_LEVEL</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cutil.LEAGUE_LEVEL</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Player.TrigerTask</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -203,27 +228,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Player.TrigerTask</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>s</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>s</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>c</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>c</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>cs</t>
+    <t>Player.Say</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -621,7 +626,7 @@
   <dimension ref="A1:G155"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -706,25 +711,25 @@
     </row>
     <row r="4" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="5" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="27" x14ac:dyDescent="0.15">
@@ -732,19 +737,19 @@
         <v>4</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G5" t="s">
         <v>18</v>
@@ -755,16 +760,19 @@
         <v>2</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>17</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>28</v>
+        <v>26</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>34</v>
       </c>
       <c r="G6" s="1"/>
     </row>
@@ -773,16 +781,16 @@
         <v>3</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="D7" t="s">
         <v>18</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.15">
